--- a/fhir/ig/iq/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:55:58-03:00</t>
+    <t>2024-12-16T14:50:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1002,7 +1002,7 @@
     <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/quirurgico/ValueSet/VSTipoCirugiaPropuesta</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/quirurgico/ValueSet/VSTipoServicioAgendamiento</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1029,7 +1029,7 @@
     <t>Appointment.appointmentType</t>
   </si>
   <si>
-    <t>Tipo de cita, puede ser "Electiva Normal | Electiva Condicional"</t>
+    <t>Tipo de cita, puede ser "Electiva Normal | Electiva Condicional". Aplica solo para agendamiento de tabla</t>
   </si>
   <si>
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
@@ -1314,11 +1314,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/quirurgico/StructureDefinition/ServiceRequestCirugiaLE)
 </t>
   </si>
   <si>
-    <t>The service request this appointment is allocated to assess</t>
+    <t>Referencia a la orden de cirugía que generó esta cita</t>
   </si>
   <si>
     <t>The service request this appointment is allocated to assess (e.g. incoming referral or procedure request).</t>
@@ -2096,7 +2096,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.18359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="54.3203125" customWidth="true" bestFit="true"/>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -7946,13 +7946,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>

--- a/fhir/ig/iq/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:11-03:00</t>
+    <t>2024-12-17T10:27:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
